--- a/data/trans_orig/INDUSTRIA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/INDUSTRIA-Edad-trans_orig.xlsx
@@ -1455,12 +1455,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2414</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">

--- a/data/trans_orig/INDUSTRIA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/INDUSTRIA-Edad-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industria contaminante en Andalucia</t>
+          <t>Industria contaminante en Andalucia (tasa de respuesta: 99,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/INDUSTRIA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/INDUSTRIA-Edad-trans_orig.xlsx
@@ -738,12 +738,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>203501</t>
+          <t>199946</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>229855</t>
+          <t>229712</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>86,14%</t>
+          <t>84,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>97,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>160019</t>
+          <t>159744</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>178341</t>
+          <t>178865</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>87,48%</t>
+          <t>87,33%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>97,5%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>371825</t>
+          <t>370708</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>403869</t>
+          <t>403988</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>88,71%</t>
+          <t>88,44%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>96,38%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3620</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27348</t>
+          <t>29159</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>1155</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14404</t>
+          <t>16504</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>8161</t>
+          <t>8311</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>35621</t>
+          <t>38975</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>9,3%</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18011</t>
+          <t>20776</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1716</t>
+          <t>1685</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17142</t>
+          <t>16391</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>2494</t>
+          <t>3423</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>24598</t>
+          <t>25687</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>6,13%</t>
         </is>
       </c>
     </row>
@@ -1194,12 +1194,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>211973</t>
+          <t>211637</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>226410</t>
+          <t>226489</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1209,12 +1209,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,42%</t>
+          <t>92,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>98,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1229,12 +1229,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>292168</t>
+          <t>292299</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>309792</t>
+          <t>310067</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1244,12 +1244,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,92%</t>
+          <t>92,96%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1264,12 +1264,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>511530</t>
+          <t>511763</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>533555</t>
+          <t>533584</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,07%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>338</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5955</t>
+          <t>6180</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1342,12 +1342,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4636</t>
+          <t>4361</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22260</t>
+          <t>22129</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1377,12 +1377,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>6809</t>
+          <t>7048</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>23180</t>
+          <t>24329</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1392,12 +1392,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,47%</t>
         </is>
       </c>
     </row>
@@ -1420,12 +1420,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1437</t>
+          <t>1422</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15087</t>
+          <t>15624</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1267</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>15974</t>
+          <t>16194</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1505,12 +1505,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,98%</t>
         </is>
       </c>
     </row>
@@ -1650,12 +1650,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>282427</t>
+          <t>281743</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>299621</t>
+          <t>298971</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1665,12 +1665,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>91,28%</t>
+          <t>91,06%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>96,83%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>285810</t>
+          <t>285933</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>302191</t>
+          <t>301872</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1700,12 +1700,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>89,65%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>94,79%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>574911</t>
+          <t>573627</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>597464</t>
+          <t>597401</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>91,31%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>95,09%</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5255</t>
+          <t>5513</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19254</t>
+          <t>20246</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11525</t>
+          <t>11539</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25796</t>
+          <t>25725</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1813,12 +1813,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>20307</t>
+          <t>20335</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>39973</t>
+          <t>39659</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,31%</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>1783</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14635</t>
+          <t>14595</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2829</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>11214</t>
+          <t>11267</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1926,12 +1926,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1946,12 +1946,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>6718</t>
+          <t>6977</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>20893</t>
+          <t>21750</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1961,12 +1961,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,46%</t>
         </is>
       </c>
     </row>
@@ -2106,12 +2106,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>577194</t>
+          <t>577371</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>616726</t>
+          <t>617389</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>92,18%</t>
+          <t>92,21%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>369121</t>
+          <t>369202</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>385689</t>
+          <t>384928</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2156,12 +2156,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2176,12 +2176,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>953847</t>
+          <t>956163</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1005981</t>
+          <t>1005566</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2191,12 +2191,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>92,87%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>97,67%</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5865</t>
+          <t>6261</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>36571</t>
+          <t>37031</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2234,12 +2234,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2254,12 +2254,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>12101</t>
+          <t>13190</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>26273</t>
+          <t>26890</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>16107</t>
+          <t>18278</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>56814</t>
+          <t>54439</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,29%</t>
         </is>
       </c>
     </row>
@@ -2332,12 +2332,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1444</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16047</t>
+          <t>16115</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2347,12 +2347,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>3514</t>
+          <t>3631</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>11782</t>
+          <t>12208</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>5871</t>
+          <t>5855</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>23600</t>
+          <t>23262</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,26%</t>
         </is>
       </c>
     </row>
@@ -2562,12 +2562,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>303509</t>
+          <t>302738</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>321324</t>
+          <t>320920</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2577,12 +2577,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>90,12%</t>
+          <t>89,89%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>293846</t>
+          <t>294710</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>306498</t>
+          <t>307213</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>96,2%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2632,12 +2632,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>603088</t>
+          <t>601998</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>624891</t>
+          <t>624927</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>91,92%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
@@ -2675,12 +2675,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10243</t>
+          <t>9790</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>23803</t>
+          <t>24645</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2690,12 +2690,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2710,12 +2710,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>6806</t>
+          <t>6457</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>16650</t>
+          <t>16742</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2725,12 +2725,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2745,12 +2745,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>18818</t>
+          <t>18784</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>36780</t>
+          <t>37846</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2760,12 +2760,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,77%</t>
         </is>
       </c>
     </row>
@@ -2788,12 +2788,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2842</t>
+          <t>3003</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14490</t>
+          <t>15382</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2803,12 +2803,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>3807</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>11723</t>
+          <t>12796</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>8560</t>
+          <t>9105</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>22541</t>
+          <t>23536</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2873,12 +2873,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,59%</t>
         </is>
       </c>
     </row>
@@ -3018,12 +3018,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>192470</t>
+          <t>192539</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>202728</t>
+          <t>202835</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3033,12 +3033,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>92,53%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>419509</t>
+          <t>418921</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>447158</t>
+          <t>448146</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3068,12 +3068,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>92,67%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3088,12 +3088,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>618506</t>
+          <t>619110</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>648744</t>
+          <t>651376</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>93,69%</t>
+          <t>93,79%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>98,27%</t>
+          <t>98,67%</t>
         </is>
       </c>
     </row>
@@ -3131,12 +3131,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3693</t>
+          <t>3823</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>13146</t>
+          <t>13100</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3166,12 +3166,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>3659</t>
+          <t>3146</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>25445</t>
+          <t>25709</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3181,12 +3181,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>8350</t>
+          <t>7246</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>32576</t>
+          <t>32853</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3216,12 +3216,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,98%</t>
         </is>
       </c>
     </row>
@@ -3244,12 +3244,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>611</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>6286</t>
+          <t>5908</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3259,12 +3259,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>402</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>9245</t>
+          <t>9389</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3294,12 +3294,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3314,12 +3314,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>1773</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>11418</t>
+          <t>11523</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3329,12 +3329,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,75%</t>
         </is>
       </c>
     </row>
@@ -3474,12 +3474,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>135925</t>
+          <t>134066</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>146114</t>
+          <t>146167</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3489,12 +3489,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>89,56%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>215831</t>
+          <t>216315</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>225447</t>
+          <t>225673</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3524,12 +3524,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>92,93%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3544,12 +3544,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>355573</t>
+          <t>355367</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>370058</t>
+          <t>369846</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3559,12 +3559,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>92,59%</t>
+          <t>92,53%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>96,36%</t>
+          <t>96,3%</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4656</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>14730</t>
+          <t>15205</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3602,12 +3602,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3622,12 +3622,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>4634</t>
+          <t>4531</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>13031</t>
+          <t>12616</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3637,12 +3637,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>10716</t>
+          <t>10775</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>23762</t>
+          <t>23479</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3672,12 +3672,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>6,11%</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>5462</t>
+          <t>5376</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3735,12 +3735,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>1097</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>6406</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3770,12 +3770,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>1865</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>8753</t>
+          <t>8691</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3785,12 +3785,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,26%</t>
         </is>
       </c>
     </row>
@@ -3930,12 +3930,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>1959039</t>
+          <t>1959401</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>2026335</t>
+          <t>2028702</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -3945,12 +3945,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>93,4%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>96,59%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3965,12 +3965,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>2083582</t>
+          <t>2083124</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>2137839</t>
+          <t>2142302</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -3980,12 +3980,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -4000,12 +4000,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>4051510</t>
+          <t>4049970</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>4139131</t>
+          <t>4142272</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -4015,12 +4015,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>93,73%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>95,86%</t>
         </is>
       </c>
     </row>
@@ -4043,12 +4043,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>50212</t>
+          <t>48567</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>97305</t>
+          <t>100319</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4058,12 +4058,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4078,12 +4078,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>61329</t>
+          <t>58497</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>103244</t>
+          <t>102242</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4093,12 +4093,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4113,12 +4113,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>126391</t>
+          <t>123613</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>196054</t>
+          <t>195147</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4128,12 +4128,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,52%</t>
         </is>
       </c>
     </row>
@@ -4156,12 +4156,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>20336</t>
+          <t>20825</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>51226</t>
+          <t>52802</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -4171,12 +4171,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4191,12 +4191,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>22312</t>
+          <t>21792</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>46247</t>
+          <t>45922</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -4206,12 +4206,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4226,12 +4226,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>50368</t>
+          <t>48852</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>89400</t>
+          <t>88115</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -4241,12 +4241,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,04%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/INDUSTRIA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/INDUSTRIA-Edad-trans_orig.xlsx
@@ -733,32 +733,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>219706</t>
+          <t>224039</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>199946</t>
+          <t>206516</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>229712</t>
+          <t>234024</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>93,0%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>84,64%</t>
+          <t>85,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>97,24%</t>
+          <t>97,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>171799</t>
+          <t>199801</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>159744</t>
+          <t>186896</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>178865</t>
+          <t>208552</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>87,33%</t>
+          <t>87,23%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>97,33%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -803,32 +803,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>391505</t>
+          <t>423840</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>370708</t>
+          <t>403924</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>403988</t>
+          <t>437721</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>93,4%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>88,44%</t>
+          <t>88,67%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>96,38%</t>
+          <t>96,09%</t>
         </is>
       </c>
     </row>
@@ -846,32 +846,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12659</t>
+          <t>13810</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4081</t>
+          <t>5322</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29159</t>
+          <t>31413</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -881,32 +881,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5086</t>
+          <t>8428</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1155</t>
+          <t>2563</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16504</t>
+          <t>21407</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>17745</t>
+          <t>22239</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>8311</t>
+          <t>9763</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>38975</t>
+          <t>40741</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>8,94%</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3871</t>
+          <t>3415</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20776</t>
+          <t>17650</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -994,32 +994,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6035</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1685</t>
+          <t>1697</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16391</t>
+          <t>16874</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1029,32 +1029,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>9909</t>
+          <t>9450</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>3423</t>
+          <t>3306</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>25687</t>
+          <t>23886</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,24%</t>
         </is>
       </c>
     </row>
@@ -1072,17 +1072,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1107,17 +1107,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>182923</t>
+          <t>214264</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>182923</t>
+          <t>214264</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>182923</t>
+          <t>214264</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>419159</t>
+          <t>455529</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>419159</t>
+          <t>455529</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>419159</t>
+          <t>455529</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1189,32 +1189,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>221873</t>
+          <t>249950</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>211637</t>
+          <t>236691</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>226489</t>
+          <t>256645</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,73%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,27%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,74%</t>
+          <t>97,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1224,32 +1224,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>302928</t>
+          <t>271237</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>292299</t>
+          <t>262199</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>310067</t>
+          <t>276849</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,96%</t>
+          <t>92,5%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>97,67%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1259,32 +1259,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>524801</t>
+          <t>521186</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>511763</t>
+          <t>506800</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>533584</t>
+          <t>530193</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>92,92%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>97,21%</t>
         </is>
       </c>
     </row>
@@ -1302,32 +1302,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2074</t>
+          <t>6204</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>1922</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6180</t>
+          <t>16304</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1337,32 +1337,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11500</t>
+          <t>12216</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4361</t>
+          <t>6604</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22129</t>
+          <t>21254</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1372,32 +1372,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>13573</t>
+          <t>18420</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>7048</t>
+          <t>10843</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>24329</t>
+          <t>31071</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>5,7%</t>
         </is>
       </c>
     </row>
@@ -1415,32 +1415,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5421</t>
+          <t>5820</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1422</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15624</t>
+          <t>16803</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1485,32 +1485,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>5421</t>
+          <t>5820</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>1453</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>16194</t>
+          <t>15879</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -1528,17 +1528,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1563,17 +1563,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1598,17 +1598,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1645,32 +1645,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>291993</t>
+          <t>345361</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>281743</t>
+          <t>334543</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>298971</t>
+          <t>353158</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>91,06%</t>
+          <t>91,67%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1680,32 +1680,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>295149</t>
+          <t>341820</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>285933</t>
+          <t>331694</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>301872</t>
+          <t>349503</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>89,69%</t>
+          <t>89,78%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>94,6%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1715,32 +1715,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>587142</t>
+          <t>687180</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>573627</t>
+          <t>673293</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>597401</t>
+          <t>699154</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>91,31%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>95,2%</t>
         </is>
       </c>
     </row>
@@ -1758,32 +1758,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10904</t>
+          <t>12870</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5513</t>
+          <t>6392</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20246</t>
+          <t>22639</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1793,32 +1793,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17680</t>
+          <t>21447</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11539</t>
+          <t>14342</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25725</t>
+          <t>30199</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1828,32 +1828,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>28584</t>
+          <t>34317</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>20335</t>
+          <t>23979</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>39659</t>
+          <t>45215</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,16%</t>
         </is>
       </c>
     </row>
@@ -1871,32 +1871,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6522</t>
+          <t>6706</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1783</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14595</t>
+          <t>14806</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1906,32 +1906,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5983</t>
+          <t>6205</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2829</t>
+          <t>2995</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>11267</t>
+          <t>11717</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1941,32 +1941,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>12506</t>
+          <t>12910</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>6977</t>
+          <t>7248</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>21750</t>
+          <t>22373</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,05%</t>
         </is>
       </c>
     </row>
@@ -1984,17 +1984,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>309420</t>
+          <t>364937</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>309420</t>
+          <t>364937</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>309420</t>
+          <t>364937</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2019,17 +2019,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>318812</t>
+          <t>369471</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>318812</t>
+          <t>369471</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>318812</t>
+          <t>369471</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2054,17 +2054,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>628232</t>
+          <t>734408</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>628232</t>
+          <t>734408</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>628232</t>
+          <t>734408</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2101,32 +2101,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>599577</t>
+          <t>391670</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>577371</t>
+          <t>380277</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>617389</t>
+          <t>401485</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>95,75%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>92,21%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2136,32 +2136,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>378024</t>
+          <t>411984</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>369202</t>
+          <t>402750</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>384928</t>
+          <t>419701</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>91,58%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>95,43%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2171,32 +2171,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>977600</t>
+          <t>803653</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>956163</t>
+          <t>789058</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1005566</t>
+          <t>816772</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>94,95%</t>
+          <t>93,14%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>92,87%</t>
+          <t>91,45%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>94,66%</t>
         </is>
       </c>
     </row>
@@ -2214,32 +2214,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19372</t>
+          <t>21494</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6261</t>
+          <t>13691</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>37031</t>
+          <t>31781</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2249,32 +2249,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18381</t>
+          <t>20136</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>13190</t>
+          <t>13962</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>26890</t>
+          <t>28916</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2284,32 +2284,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>37753</t>
+          <t>41630</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>18278</t>
+          <t>31483</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>54439</t>
+          <t>53927</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>6,25%</t>
         </is>
       </c>
     </row>
@@ -2327,32 +2327,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7210</t>
+          <t>9843</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1444</t>
+          <t>4591</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16115</t>
+          <t>18464</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2362,32 +2362,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6997</t>
+          <t>7683</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>3631</t>
+          <t>4159</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>12208</t>
+          <t>12706</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2397,32 +2397,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>14207</t>
+          <t>17526</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>5855</t>
+          <t>11183</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>23262</t>
+          <t>27713</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>3,21%</t>
         </is>
       </c>
     </row>
@@ -2440,17 +2440,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>626160</t>
+          <t>423007</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>626160</t>
+          <t>423007</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>626160</t>
+          <t>423007</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2475,17 +2475,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>403402</t>
+          <t>439802</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>403402</t>
+          <t>439802</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>403402</t>
+          <t>439802</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2510,17 +2510,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1029561</t>
+          <t>862809</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1029561</t>
+          <t>862809</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1029561</t>
+          <t>862809</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2557,32 +2557,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>313629</t>
+          <t>342132</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>302738</t>
+          <t>331232</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>320920</t>
+          <t>349666</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>93,12%</t>
+          <t>93,56%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>89,89%</t>
+          <t>90,58%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2592,32 +2592,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>301528</t>
+          <t>340100</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>294710</t>
+          <t>332952</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>307213</t>
+          <t>346023</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>94,42%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>92,76%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2627,32 +2627,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>615158</t>
+          <t>682232</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>601998</t>
+          <t>668693</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>624927</t>
+          <t>692052</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>95,5%</t>
         </is>
       </c>
     </row>
@@ -2670,32 +2670,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15944</t>
+          <t>16293</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9790</t>
+          <t>9848</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>24645</t>
+          <t>24876</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2705,32 +2705,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>10627</t>
+          <t>11420</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>6457</t>
+          <t>6980</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>16742</t>
+          <t>18063</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2740,32 +2740,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>26572</t>
+          <t>27713</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>18784</t>
+          <t>19808</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>37846</t>
+          <t>38995</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,38%</t>
         </is>
       </c>
     </row>
@@ -2783,32 +2783,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7220</t>
+          <t>7269</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3003</t>
+          <t>3050</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>15382</t>
+          <t>15319</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2818,32 +2818,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>7183</t>
+          <t>7426</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>3810</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>12796</t>
+          <t>13138</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2853,32 +2853,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>14403</t>
+          <t>14695</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>9105</t>
+          <t>9228</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>23536</t>
+          <t>23733</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,28%</t>
         </is>
       </c>
     </row>
@@ -2896,17 +2896,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>336793</t>
+          <t>365694</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>336793</t>
+          <t>365694</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>336793</t>
+          <t>365694</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2931,17 +2931,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>319338</t>
+          <t>358945</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>319338</t>
+          <t>358945</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>319338</t>
+          <t>358945</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2966,17 +2966,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>656132</t>
+          <t>724640</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>656132</t>
+          <t>724640</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>656132</t>
+          <t>724640</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3013,32 +3013,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>198500</t>
+          <t>220876</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>192539</t>
+          <t>214030</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>202835</t>
+          <t>225604</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>92,53%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>97,55%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3048,32 +3048,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>435841</t>
+          <t>251426</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>418921</t>
+          <t>244856</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>448146</t>
+          <t>256646</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3083,32 +3083,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>634342</t>
+          <t>472302</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>619110</t>
+          <t>463872</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>651376</t>
+          <t>479156</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>94,33%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>93,79%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>95,7%</t>
         </is>
       </c>
     </row>
@@ -3126,32 +3126,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>7472</t>
+          <t>7920</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3823</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>13100</t>
+          <t>13779</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3161,32 +3161,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>12507</t>
+          <t>13544</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>3146</t>
+          <t>9284</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>25709</t>
+          <t>19343</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3196,32 +3196,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>19979</t>
+          <t>21464</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>7246</t>
+          <t>15767</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>32853</t>
+          <t>29206</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>5,83%</t>
         </is>
       </c>
     </row>
@@ -3239,22 +3239,22 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2112</t>
+          <t>2477</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>665</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>5908</t>
+          <t>7254</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3274,32 +3274,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>3700</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>2134</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>9389</t>
+          <t>8524</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3309,32 +3309,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>5812</t>
+          <t>6930</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1773</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>11523</t>
+          <t>12544</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>2,51%</t>
         </is>
       </c>
     </row>
@@ -3352,17 +3352,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3387,17 +3387,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>452049</t>
+          <t>269423</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>452049</t>
+          <t>269423</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>452049</t>
+          <t>269423</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3422,17 +3422,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>660134</t>
+          <t>500696</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>660134</t>
+          <t>500696</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>660134</t>
+          <t>500696</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3469,32 +3469,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>141961</t>
+          <t>154694</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>134066</t>
+          <t>145857</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>146167</t>
+          <t>159372</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>93,53%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>88,09%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>96,25%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3504,17 +3504,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>221458</t>
+          <t>242993</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>216315</t>
+          <t>237185</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>225673</t>
+          <t>247529</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3524,12 +3524,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>93,13%</t>
+          <t>93,07%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>97,16%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3539,32 +3539,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>363419</t>
+          <t>397688</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>355367</t>
+          <t>388787</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>369846</t>
+          <t>404783</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>94,59%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>92,53%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>96,28%</t>
         </is>
       </c>
     </row>
@@ -3582,32 +3582,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>8252</t>
+          <t>8928</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4429</t>
+          <t>4691</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>15205</t>
+          <t>16269</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3617,32 +3617,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7932</t>
+          <t>8695</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>4531</t>
+          <t>4902</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>12616</t>
+          <t>13916</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3652,32 +3652,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>16185</t>
+          <t>17624</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>10775</t>
+          <t>11722</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>23479</t>
+          <t>25492</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>6,06%</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1562</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -3705,12 +3705,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>5376</t>
+          <t>6686</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3730,17 +3730,17 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>2870</t>
+          <t>3165</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>1097</t>
+          <t>1186</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>6406</t>
+          <t>7025</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3765,32 +3765,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>4432</t>
+          <t>5123</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>1718</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>8691</t>
+          <t>10103</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,4%</t>
         </is>
       </c>
     </row>
@@ -3808,17 +3808,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3843,17 +3843,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>232261</t>
+          <t>254854</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>232261</t>
+          <t>254854</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>232261</t>
+          <t>254854</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3878,17 +3878,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>384036</t>
+          <t>420435</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>384036</t>
+          <t>420435</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>384036</t>
+          <t>420435</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3925,32 +3925,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>1987239</t>
+          <t>1928722</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>1959401</t>
+          <t>1903628</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>2028702</t>
+          <t>1951902</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>93,91%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>93,4%</t>
+          <t>92,69%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3960,32 +3960,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>2106728</t>
+          <t>2059361</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>2083124</t>
+          <t>2036431</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>2142302</t>
+          <t>2079312</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>94,03%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>96,36%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3995,32 +3995,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>4093968</t>
+          <t>3988083</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>4049970</t>
+          <t>3951557</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>4142272</t>
+          <t>4018186</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>94,74%</t>
+          <t>93,97%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>93,73%</t>
+          <t>93,11%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>94,68%</t>
         </is>
       </c>
     </row>
@@ -4038,102 +4038,102 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>76677</t>
+          <t>87520</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>48567</t>
+          <t>68153</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>100319</t>
+          <t>109286</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
+          <t>4,26%</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>3,32%</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>5,32%</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>95886</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>79399</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>113837</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>4,38%</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>3,63%</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>183406</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>155358</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>211199</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
           <t>3,66%</t>
         </is>
       </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>2,32%</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>4,78%</t>
-        </is>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>83713</t>
-        </is>
-      </c>
-      <c r="L33" s="2" t="inlineStr">
-        <is>
-          <t>58497</t>
-        </is>
-      </c>
-      <c r="M33" s="2" t="inlineStr">
-        <is>
-          <t>102242</t>
-        </is>
-      </c>
-      <c r="N33" s="2" t="inlineStr">
-        <is>
-          <t>3,77%</t>
-        </is>
-      </c>
-      <c r="O33" s="2" t="inlineStr">
-        <is>
-          <t>2,63%</t>
-        </is>
-      </c>
-      <c r="P33" s="2" t="inlineStr">
-        <is>
-          <t>4,6%</t>
-        </is>
-      </c>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
-      <c r="R33" s="2" t="inlineStr">
-        <is>
-          <t>160391</t>
-        </is>
-      </c>
-      <c r="S33" s="2" t="inlineStr">
-        <is>
-          <t>123613</t>
-        </is>
-      </c>
-      <c r="T33" s="2" t="inlineStr">
-        <is>
-          <t>195147</t>
-        </is>
-      </c>
-      <c r="U33" s="2" t="inlineStr">
-        <is>
-          <t>3,71%</t>
-        </is>
-      </c>
-      <c r="V33" s="2" t="inlineStr">
-        <is>
-          <t>2,86%</t>
-        </is>
-      </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,98%</t>
         </is>
       </c>
     </row>
@@ -4151,32 +4151,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>33920</t>
+          <t>37489</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>20825</t>
+          <t>26105</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>52802</t>
+          <t>56157</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4186,32 +4186,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>32772</t>
+          <t>34966</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>21792</t>
+          <t>25383</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>45922</t>
+          <t>48280</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4221,32 +4221,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>66691</t>
+          <t>72455</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>48852</t>
+          <t>55952</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>88115</t>
+          <t>93425</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,2%</t>
         </is>
       </c>
     </row>
@@ -4264,17 +4264,17 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>2097836</t>
+          <t>2053731</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>2097836</t>
+          <t>2053731</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>2097836</t>
+          <t>2053731</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4299,17 +4299,17 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>2223213</t>
+          <t>2190213</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>2223213</t>
+          <t>2190213</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>2223213</t>
+          <t>2190213</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4334,17 +4334,17 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>4321050</t>
+          <t>4243944</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>4321050</t>
+          <t>4243944</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>4321050</t>
+          <t>4243944</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
